--- a/result/orig_classification_result.xlsx
+++ b/result/orig_classification_result.xlsx
@@ -481,7 +481,7 @@
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>humoment</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="K1" s="1" t="n"/>
@@ -497,7 +497,7 @@
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>texture-humoment</t>
+          <t>texture-shape</t>
         </is>
       </c>
       <c r="S1" s="1" t="n"/>
@@ -505,7 +505,7 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>color-humoment</t>
+          <t>color-shape</t>
         </is>
       </c>
       <c r="W1" s="1" t="n"/>
@@ -513,7 +513,7 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>texture-color-humoment</t>
+          <t>texture-color-shape</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5302427230498357</v>
+        <v>0.5610378380419134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5269999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5481356046272535</v>
+        <v>0.5647766200071546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5359999999999999</v>
+        <v>0.5839999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5555557872694641</v>
+        <v>0.596471664039624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6016415779777216</v>
+        <v>0.6129084271147054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5820000000000001</v>
+        <v>0.6020000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6519849288583972</v>
+        <v>0.6738780318888157</v>
       </c>
       <c r="K4" t="n">
-        <v>0.843</v>
+        <v>0.969</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5380798606831865</v>
+        <v>0.517122287669734</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5565</v>
+        <v>0.5309999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6023649902668027</v>
+        <v>0.6254024427147131</v>
       </c>
       <c r="O4" t="n">
-        <v>0.612</v>
+        <v>0.645</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6336880764452524</v>
+        <v>0.6437845128202339</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.614</v>
+        <v>0.63</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6200725146521769</v>
+        <v>0.5646288753514351</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7130000000000001</v>
+        <v>0.588</v>
       </c>
       <c r="T4" t="n">
-        <v>0.558892562677579</v>
+        <v>0.5665949757264891</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5680000000000001</v>
+        <v>0.5855</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6022257050976803</v>
+        <v>0.5912022352494647</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6479999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6017587256249844</v>
+        <v>0.6114362808504905</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.595</v>
+        <v>0.5995</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6135057603239169</v>
+        <v>0.6266629720922198</v>
       </c>
       <c r="AA4" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.6443363136392586</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.631</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6331525230138676</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.6159999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5692946526046496</v>
+        <v>0.5810324902546983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6149999999999999</v>
+        <v>0.605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5410185677633156</v>
+        <v>0.5810774716889557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5415</v>
+        <v>0.5905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6779986011460593</v>
+        <v>0.7116478961297652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.745</v>
+        <v>0.779</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6403761089313023</v>
+        <v>0.6721240867499313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6489999999999999</v>
+        <v>0.6839999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6037038077613801</v>
+        <v>0.6206504386321211</v>
       </c>
       <c r="K5" t="n">
-        <v>0.724</v>
+        <v>0.764</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5379406927739231</v>
+        <v>0.5379334277740289</v>
       </c>
       <c r="M5" t="n">
-        <v>0.553</v>
+        <v>0.5545</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6679942064495404</v>
+        <v>0.6384016540939585</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7080000000000001</v>
+        <v>0.6570000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6531705096179246</v>
+        <v>0.6485119546252436</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.646</v>
+        <v>0.636</v>
       </c>
       <c r="R5" t="n">
-        <v>0.602820246183008</v>
+        <v>0.5830725719375816</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7030000000000001</v>
+        <v>0.608</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5371146062936687</v>
+        <v>0.5829378049724532</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5509999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6808751740488805</v>
+        <v>0.7016975702337404</v>
       </c>
       <c r="W5" t="n">
-        <v>0.753</v>
+        <v>0.773</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6385180608427382</v>
+        <v>0.6590904839159274</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.647</v>
+        <v>0.6725000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6685046923544948</v>
+        <v>0.6363280508781239</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7150000000000001</v>
+        <v>0.6570000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6496359598618032</v>
+        <v>0.6457375535616043</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.644</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6029108157886028</v>
+        <v>0.5542377678943767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.615</v>
+        <v>0.5569999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6007582151183481</v>
+        <v>0.5824990502093139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5965</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6856944124301287</v>
+        <v>0.6890143946505687</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7489999999999999</v>
+        <v>0.7610000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6485420935424685</v>
+        <v>0.6478327887034013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.658</v>
+        <v>0.6624999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6457397050733061</v>
+        <v>0.6456260945889024</v>
       </c>
       <c r="K6" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
       <c r="L6" t="n">
-        <v>0.53382230517117</v>
+        <v>0.5249892209954442</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5505</v>
+        <v>0.5389999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7088781319558002</v>
+        <v>0.6428852974078167</v>
       </c>
       <c r="O6" t="n">
-        <v>0.737</v>
+        <v>0.659</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6987032651416323</v>
+        <v>0.6547624066178906</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.697</v>
+        <v>0.6445000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6026076898376298</v>
+        <v>0.5576126680829809</v>
       </c>
       <c r="S6" t="n">
-        <v>0.646</v>
+        <v>0.5589999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5781958619240994</v>
+        <v>0.5863015526479983</v>
       </c>
       <c r="U6" t="n">
-        <v>0.583</v>
+        <v>0.599</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6650258457752993</v>
+        <v>0.6694819440469891</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7339999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6261034780748742</v>
+        <v>0.6228876461889888</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.634</v>
+        <v>0.6345000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6899090551416431</v>
+        <v>0.6348496035251657</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.717</v>
+        <v>0.6489999999999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6862801576453661</v>
+        <v>0.6502375157952499</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6775</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="7">
@@ -943,88 +943,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003866990472632169</v>
+        <v>0.5064608506989259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002</v>
+        <v>0.5409999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.4837156620475147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4980000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5111850684421256</v>
+        <v>0.4748255085823812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.536</v>
+        <v>0.474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.52118082635823</v>
+        <v>0.4931001515121298</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5435000000000001</v>
+        <v>0.4970000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5030415363176824</v>
+        <v>0.6018408147846502</v>
       </c>
       <c r="K7" t="n">
-        <v>0.516</v>
+        <v>0.8029999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5091497254670135</v>
+        <v>0.4894977347593315</v>
       </c>
       <c r="M7" t="n">
-        <v>0.514</v>
+        <v>0.5175</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1790861728557644</v>
+        <v>0.5679917654016056</v>
       </c>
       <c r="O7" t="n">
-        <v>0.113</v>
+        <v>0.592</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5356878306878307</v>
+        <v>0.551254268987578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5115</v>
+        <v>0.5605</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3377410350254998</v>
+        <v>0.5072526266468894</v>
       </c>
       <c r="S7" t="n">
-        <v>0.275</v>
+        <v>0.5359999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4459635497843883</v>
+        <v>0.4870293127680508</v>
       </c>
       <c r="U7" t="n">
-        <v>0.475</v>
+        <v>0.4955</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5036855762931475</v>
+        <v>0.5128940962268628</v>
       </c>
       <c r="W7" t="n">
-        <v>0.536</v>
+        <v>0.529</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4896634805561789</v>
+        <v>0.5072530046965837</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5085</v>
+        <v>0.519</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3177907902966635</v>
+        <v>0.5655732188573166</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.247</v>
+        <v>0.583</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4905586435974123</v>
+        <v>0.5544619749694173</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5029999999999999</v>
+        <v>0.5605</v>
       </c>
     </row>
   </sheetData>

--- a/result/orig_classification_result.xlsx
+++ b/result/orig_classification_result.xlsx
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5610378380419134</v>
+        <v>0.6308291129860543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.583</v>
+        <v>0.657</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5647766200071546</v>
+        <v>0.624000858260329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5839999999999999</v>
+        <v>0.6234999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.596471664039624</v>
+        <v>0.5652977737532658</v>
       </c>
       <c r="G4" t="n">
-        <v>0.628</v>
+        <v>0.552</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6129084271147054</v>
+        <v>0.5977215165268509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6020000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6738780318888157</v>
+        <v>0.6519849288583972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.969</v>
+        <v>0.843</v>
       </c>
       <c r="L4" t="n">
-        <v>0.517122287669734</v>
+        <v>0.5380798606831865</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5309999999999999</v>
+        <v>0.5565</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6254024427147131</v>
+        <v>0.6395628362439414</v>
       </c>
       <c r="O4" t="n">
-        <v>0.645</v>
+        <v>0.634</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6437845128202339</v>
+        <v>0.6627808854146335</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.63</v>
+        <v>0.643</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5646288753514351</v>
+        <v>0.63549681758873</v>
       </c>
       <c r="S4" t="n">
-        <v>0.588</v>
+        <v>0.654</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5665949757264891</v>
+        <v>0.6395795601578353</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5855</v>
+        <v>0.6345000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5912022352494647</v>
+        <v>0.5649906893790165</v>
       </c>
       <c r="W4" t="n">
-        <v>0.62</v>
+        <v>0.5569999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6114362808504905</v>
+        <v>0.5882215793496119</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5995</v>
+        <v>0.5745</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6266629720922198</v>
+        <v>0.6442170220377668</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.646</v>
+        <v>0.6439999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6443363136392586</v>
+        <v>0.6611430738450725</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.631</v>
+        <v>0.6439999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5810324902546983</v>
+        <v>0.6424736233774221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.605</v>
+        <v>0.694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5810774716889557</v>
+        <v>0.6105672132414932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5905</v>
+        <v>0.625</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7116478961297652</v>
+        <v>0.5984917585207542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.779</v>
+        <v>0.593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6721240867499313</v>
+        <v>0.6228218685650765</v>
       </c>
       <c r="I5" t="n">
+        <v>0.6035000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6037038077613801</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5379406927739231</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6161665065075501</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6217610241101575</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6337188302597639</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.6839999999999999</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.6206504386321211</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5379334277740289</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5545</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.6384016540939585</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6570000000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6485119546252436</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5830725719375816</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
+        <v>0.6064304464508008</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.6199999999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5990662892525185</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6229116812850777</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.6035</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6155354443603589</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.6214260710346802</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.608</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.5829378049724532</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.7016975702337404</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.6590904839159274</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.6725000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.6363280508781239</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.6570000000000001</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.6457375535616043</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.633</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5542377678943767</v>
+        <v>0.644080694845645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5569999999999999</v>
+        <v>0.658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5824990502093139</v>
+        <v>0.6486519887610067</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5974999999999999</v>
+        <v>0.6465</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6890143946505687</v>
+        <v>0.5996900752419304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7610000000000001</v>
+        <v>0.6220000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6478327887034013</v>
+        <v>0.5936780405527909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6624999999999999</v>
+        <v>0.5894999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6456260945889024</v>
+        <v>0.6457397050733061</v>
       </c>
       <c r="K6" t="n">
-        <v>0.857</v>
+        <v>0.833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5249892209954442</v>
+        <v>0.53382230517117</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5389999999999999</v>
+        <v>0.5505</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6428852974078167</v>
+        <v>0.6242481815970227</v>
       </c>
       <c r="O6" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6338621883515176</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6204999999999999</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6456099236294124</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.659</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.6547624066178906</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.6445000000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.5576126680829809</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5589999999999999</v>
-      </c>
       <c r="T6" t="n">
-        <v>0.5863015526479983</v>
+        <v>0.6520829127344496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.599</v>
+        <v>0.648</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6694819440469891</v>
+        <v>0.6036240071995228</v>
       </c>
       <c r="W6" t="n">
-        <v>0.748</v>
+        <v>0.628</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6228876461889888</v>
+        <v>0.5952009161514079</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6345000000000001</v>
+        <v>0.592</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6348496035251657</v>
+        <v>0.6269390047868134</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6489999999999999</v>
+        <v>0.6380000000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6502375157952499</v>
+        <v>0.6347722377263799</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.639</v>
+        <v>0.6219999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -943,88 +943,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5064608506989259</v>
+        <v>0.5599715909145864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5409999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4837156620475147</v>
+        <v>0.5578194224204991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.496</v>
+        <v>0.5525</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4748255085823812</v>
+        <v>0.5090029130676117</v>
       </c>
       <c r="G7" t="n">
-        <v>0.474</v>
+        <v>0.5229999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4931001515121298</v>
+        <v>0.5100693189288688</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4970000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6018408147846502</v>
+        <v>0.5030415363176824</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8029999999999999</v>
+        <v>0.516</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4894977347593315</v>
+        <v>0.5091497254670135</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5175</v>
+        <v>0.514</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5679917654016056</v>
+        <v>0.5370677210419921</v>
       </c>
       <c r="O7" t="n">
-        <v>0.592</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.551254268987578</v>
+        <v>0.549942074640928</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5605</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5072526266468894</v>
+        <v>0.5486553910940468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5359999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4870293127680508</v>
+        <v>0.5369007085352122</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4955</v>
+        <v>0.539</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5128940962268628</v>
+        <v>0.5184461646050238</v>
       </c>
       <c r="W7" t="n">
-        <v>0.529</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5072530046965837</v>
+        <v>0.51703183674548</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.519</v>
+        <v>0.5110000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5655732188573166</v>
+        <v>0.5428169213100973</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.583</v>
+        <v>0.5619999999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5544619749694173</v>
+        <v>0.5544563249047233</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5605</v>
+        <v>0.545</v>
       </c>
     </row>
   </sheetData>

--- a/result/orig_classification_result.xlsx
+++ b/result/orig_classification_result.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,60 +465,12 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>texture</t>
+          <t>resnet</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>texture-shape</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>color-shape</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color-shape</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -542,126 +494,6 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -670,88 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6308291129860543</v>
+        <v>0.7809481029283767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.657</v>
+        <v>0.7860000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.624000858260329</v>
+        <v>0.7962482998009123</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6234999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5652977737532658</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5977215165268509</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6519849288583972</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5380798606831865</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5565</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.6395628362439414</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6627808854146335</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.63549681758873</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.6395795601578353</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.6345000000000001</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.5649906893790165</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.5569999999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5882215793496119</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6442170220377668</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6439999999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6611430738450725</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.6439999999999999</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6424736233774221</v>
+        <v>0.7893513156027663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.694</v>
+        <v>0.8109999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6105672132414932</v>
+        <v>0.7923665786379919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5984917585207542</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6228218685650765</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6035000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6037038077613801</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.724</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5379406927739231</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.6161665065075501</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6217610241101575</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6337188302597639</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6839999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6064304464508008</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6199999999999999</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.5990662892525185</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.6229116812850777</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.6035</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.6155354443603589</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.6214260710346802</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.608</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.644080694845645</v>
+        <v>0.6598112165757225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.658</v>
+        <v>0.621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6486519887610067</v>
+        <v>0.7581190136275857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6465</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5996900752419304</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6220000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5936780405527909</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5894999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6457397050733061</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.53382230517117</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5505</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.6242481815970227</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.634</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.6338621883515176</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.6204999999999999</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6456099236294124</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6520829127344496</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.648</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.6036240071995228</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.5952009161514079</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.6269390047868134</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.6380000000000001</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.6347722377263799</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.6219999999999999</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="7">
@@ -943,99 +559,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5599715909145864</v>
+        <v>0.7825797887973394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.574</v>
+        <v>0.784</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5578194224204991</v>
+        <v>0.8059606214459911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5525</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5090029130676117</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5229999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5100693189288688</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5030415363176824</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5091497254670135</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5370677210419921</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.549942074640928</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5399999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5486553910940468</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5369007085352122</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.5184461646050238</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.5349999999999999</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.51703183674548</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.5110000000000001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.5428169213100973</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.5619999999999999</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.5544563249047233</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.545</v>
+        <v>0.7889999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
